--- a/list of all ids.xlsx
+++ b/list of all ids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVM\Desktop\foxies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAACC619-C676-424A-A463-A62DB9234FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F54366-42C9-4A8C-B695-C306FC9F8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="105" windowWidth="17490" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Измерения" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="310">
   <si>
     <t>Название измерения</t>
   </si>
@@ -697,18 +697,287 @@
   </si>
   <si>
     <t>Multishot</t>
+  </si>
+  <si>
+    <t>Galacticraft Core</t>
+  </si>
+  <si>
+    <t>ID start from</t>
+  </si>
+  <si>
+    <t>Идшники стартуют с 200 и дальше хз сколько</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Galacticraft Planets</t>
+  </si>
+  <si>
+    <t>Asteroids</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>ExtraPlanets</t>
+  </si>
+  <si>
+    <t>Callisto</t>
+  </si>
+  <si>
+    <t>Ceres</t>
+  </si>
+  <si>
+    <t>Deimos</t>
+  </si>
+  <si>
+    <t>Eris</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Ganymede</t>
+  </si>
+  <si>
+    <t>Iapetus</t>
+  </si>
+  <si>
+    <t>Io Ash Lands</t>
+  </si>
+  <si>
+    <t>Io Biome</t>
+  </si>
+  <si>
+    <t>Io Burning Plains</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Jupiter Sands Biome</t>
+  </si>
+  <si>
+    <t>Jupiter Sea</t>
+  </si>
+  <si>
+    <t>Kepler22b Blue Maple Forest</t>
+  </si>
+  <si>
+    <t>Kepler22b Blue Red Forest</t>
+  </si>
+  <si>
+    <t>Kepler22b Coal Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Diamond Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Emerald Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Gold Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Iron Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Plains</t>
+  </si>
+  <si>
+    <t>Kepler22b Purple Maple Forest</t>
+  </si>
+  <si>
+    <t>Kepler22b Red Desert</t>
+  </si>
+  <si>
+    <t>Kepler22b Waste Lands</t>
+  </si>
+  <si>
+    <t>Kepler22b Yellow Maple Forest</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Neptune Layered Hills</t>
+  </si>
+  <si>
+    <t>Neptune Radio Active Water Sea</t>
+  </si>
+  <si>
+    <t>Oberon</t>
+  </si>
+  <si>
+    <t>Oberon Large Mountain</t>
+  </si>
+  <si>
+    <t>Oberon Valleys</t>
+  </si>
+  <si>
+    <t>Phobos</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>Rhea</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Saturn HydroCarbon Sea</t>
+  </si>
+  <si>
+    <t>Saturn Nuclear Land</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Titan Methane Hills</t>
+  </si>
+  <si>
+    <t>Titan Sea</t>
+  </si>
+  <si>
+    <t>Titania</t>
+  </si>
+  <si>
+    <t>Triton</t>
+  </si>
+  <si>
+    <t>Triton Ice Lands</t>
+  </si>
+  <si>
+    <t>Triton Ice Sea</t>
+  </si>
+  <si>
+    <t>Uranus Biome</t>
+  </si>
+  <si>
+    <t>Uranus Frozen Sea</t>
+  </si>
+  <si>
+    <t>Uranus Snow Lands</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Ceres SpaceStation</t>
+  </si>
+  <si>
+    <t>Ceres SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Eris SpaceStation</t>
+  </si>
+  <si>
+    <t>Eris SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Io</t>
+  </si>
+  <si>
+    <t>Jupiter SpaceStation</t>
+  </si>
+  <si>
+    <t>Jupiter SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Kepler 22b</t>
+  </si>
+  <si>
+    <t>Kepler 22b SpaceStation</t>
+  </si>
+  <si>
+    <t>Kepler 22b SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Mars SpaceStation</t>
+  </si>
+  <si>
+    <t>Mars SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Mercury SpaceStation</t>
+  </si>
+  <si>
+    <t>Mercury SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Neptune SpaceStation</t>
+  </si>
+  <si>
+    <t>Neptune SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Pluto SpaceStation</t>
+  </si>
+  <si>
+    <t>Pluto SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Saturn SpaceStation</t>
+  </si>
+  <si>
+    <t>Saturn SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>Uranus SpaceStation</t>
+  </si>
+  <si>
+    <t>Uranus SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Venus SpaceStation</t>
+  </si>
+  <si>
+    <t>Venus SpaceStation Static</t>
+  </si>
+  <si>
+    <t>Amun Ra</t>
+  </si>
+  <si>
+    <t>mothership</t>
+  </si>
+  <si>
+    <t>Applied Energistics</t>
+  </si>
+  <si>
+    <t>Storage Biome</t>
+  </si>
+  <si>
+    <t>storageProviderID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -840,11 +1109,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,43 +1130,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -897,16 +1175,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,11 +1492,11 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,697 +1523,841 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11">
-        <v>-73</v>
+        <v>309</v>
+      </c>
+      <c r="C2" s="19">
+        <v>-120</v>
+      </c>
+      <c r="D2" s="27">
+        <v>-11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-42</v>
+        <v>304</v>
+      </c>
+      <c r="C3" s="19">
+        <v>-117</v>
+      </c>
+      <c r="D3" s="27">
+        <v>-62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-39</v>
+        <v>303</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-116</v>
+      </c>
+      <c r="D4" s="27">
+        <v>-63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-38</v>
+        <v>279</v>
+      </c>
+      <c r="C5" s="19">
+        <v>-115</v>
+      </c>
+      <c r="D5" s="27">
+        <v>-14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-37</v>
+        <v>302</v>
+      </c>
+      <c r="C6" s="19">
+        <v>-114</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-19</v>
+        <v>301</v>
+      </c>
+      <c r="C7" s="19">
+        <v>-113</v>
+      </c>
+      <c r="D7" s="27">
+        <v>-73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-1</v>
+        <v>300</v>
+      </c>
+      <c r="C8" s="19">
+        <v>-112</v>
+      </c>
+      <c r="D8" s="27">
+        <v>-17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="C9" s="19">
+        <v>-111</v>
+      </c>
+      <c r="D9" s="27">
+        <v>-36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6</v>
+      <c r="A10" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="19">
+        <v>-110</v>
+      </c>
+      <c r="D10" s="27">
+        <v>-42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7</v>
+        <v>230</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="19">
+        <v>-109</v>
+      </c>
+      <c r="D11" s="27">
+        <v>-40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6">
-        <v>69</v>
+        <v>299</v>
+      </c>
+      <c r="C12" s="19">
+        <v>-108</v>
+      </c>
+      <c r="D12" s="27">
+        <v>-70</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>110</v>
+        <v>230</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="19">
+        <v>-107</v>
+      </c>
+      <c r="D13" s="27">
+        <v>-71</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="19">
+        <v>-106</v>
+      </c>
+      <c r="D14" s="27">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="19">
+        <v>-105</v>
+      </c>
+      <c r="D15" s="27">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-104</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="19">
+        <v>-103</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-102</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-101</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="19">
+        <v>-100</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="19">
+        <v>-99</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="19">
+        <v>-98</v>
+      </c>
+      <c r="D22" s="11">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="19">
+        <v>-97</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="19">
+        <v>-96</v>
+      </c>
+      <c r="D24" s="11">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="19">
+        <v>-95</v>
+      </c>
+      <c r="D25" s="11">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="19">
+        <v>-94</v>
+      </c>
+      <c r="D26" s="11">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="19">
+        <v>-93</v>
+      </c>
+      <c r="D27" s="11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="19">
+        <v>-92</v>
+      </c>
+      <c r="D28" s="11">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="19">
+        <v>-91</v>
+      </c>
+      <c r="D29" s="11">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="19">
+        <v>-90</v>
+      </c>
+      <c r="D30" s="11">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="19">
+        <v>-89</v>
+      </c>
+      <c r="D31" s="11">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="19">
+        <v>-88</v>
+      </c>
+      <c r="D32" s="11">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="19">
+        <v>-87</v>
+      </c>
+      <c r="D33" s="11">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="19">
+        <v>-86</v>
+      </c>
+      <c r="D34" s="11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="19">
+        <v>-85</v>
+      </c>
+      <c r="D35" s="11">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="19">
+        <v>-84</v>
+      </c>
+      <c r="D36" s="11">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="19">
+        <v>-83</v>
+      </c>
+      <c r="D37" s="11">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="19">
+        <v>-82</v>
+      </c>
+      <c r="D38" s="11">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="19">
+        <v>-81</v>
+      </c>
+      <c r="D39" s="11">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="19">
+        <v>-80</v>
+      </c>
+      <c r="D40" s="11">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="19">
+        <v>-79</v>
+      </c>
+      <c r="D41" s="11">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="19">
+        <v>-78</v>
+      </c>
+      <c r="D42" s="11">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="19">
+        <v>-77</v>
+      </c>
+      <c r="D43" s="11">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="19">
+        <v>-76</v>
+      </c>
+      <c r="D44" s="11">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="19">
+        <v>-75</v>
+      </c>
+      <c r="D45" s="11">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="19">
+        <v>-74</v>
+      </c>
+      <c r="D46" s="11">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="11">
+        <v>-73</v>
+      </c>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="11">
+        <v>-42</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="31">
+        <v>-41</v>
+      </c>
+      <c r="D49" s="6">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-39</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="11">
+        <v>-38</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-37</v>
+      </c>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-30</v>
+      </c>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-29</v>
+      </c>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="24">
+        <v>-28</v>
+      </c>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6">
+        <v>-19</v>
+      </c>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="6">
+        <v>7</v>
+      </c>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="6">
+        <v>69</v>
+      </c>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C62" s="6">
+        <v>110</v>
+      </c>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="6">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
-    <sortCondition ref="C1:C128"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013F443-1457-4DB7-9562-06AB8472B6D5}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C145"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1980,6 +2424,1187 @@
     <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D130">
+    <sortCondition ref="C1:C130"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013F443-1457-4DB7-9562-06AB8472B6D5}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="28">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="19">
+        <v>128</v>
+      </c>
+      <c r="D26" s="27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="19">
+        <v>135</v>
+      </c>
+      <c r="D27" s="27">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="19">
+        <v>136</v>
+      </c>
+      <c r="D28" s="27">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="19">
+        <v>137</v>
+      </c>
+      <c r="D29" s="27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="19">
+        <v>138</v>
+      </c>
+      <c r="D30" s="27">
+        <v>150</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="19">
+        <v>139</v>
+      </c>
+      <c r="D31" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="19">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="19">
+        <v>142</v>
+      </c>
+      <c r="D33" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="19">
+        <v>143</v>
+      </c>
+      <c r="D34" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="19">
+        <v>144</v>
+      </c>
+      <c r="D35" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="19">
+        <v>145</v>
+      </c>
+      <c r="D36" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="19">
+        <v>146</v>
+      </c>
+      <c r="D37" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="19">
+        <v>147</v>
+      </c>
+      <c r="D38" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="19">
+        <v>148</v>
+      </c>
+      <c r="D39" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="19">
+        <v>150</v>
+      </c>
+      <c r="D40" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="19">
+        <v>152</v>
+      </c>
+      <c r="D41" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="19">
+        <v>153</v>
+      </c>
+      <c r="D42" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="19">
+        <v>154</v>
+      </c>
+      <c r="D43" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="19">
+        <v>155</v>
+      </c>
+      <c r="D44" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="19">
+        <v>159</v>
+      </c>
+      <c r="D45" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="19">
+        <v>177</v>
+      </c>
+      <c r="D46" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="19">
+        <v>168</v>
+      </c>
+      <c r="D47" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="19">
+        <v>169</v>
+      </c>
+      <c r="D48" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="19">
+        <v>170</v>
+      </c>
+      <c r="D49" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="19">
+        <v>171</v>
+      </c>
+      <c r="D50" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="19">
+        <v>172</v>
+      </c>
+      <c r="D51" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="19">
+        <v>173</v>
+      </c>
+      <c r="D52" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="19">
+        <v>174</v>
+      </c>
+      <c r="D53" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="19">
+        <v>175</v>
+      </c>
+      <c r="D54" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="19">
+        <v>176</v>
+      </c>
+      <c r="D55" s="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="6">
+        <v>192</v>
+      </c>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="6">
+        <v>193</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="6">
+        <v>194</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="11">
+        <v>195</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="19">
+        <v>220</v>
+      </c>
+      <c r="D60" s="24">
+        <v>102</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="19">
+        <v>201</v>
+      </c>
+      <c r="D61" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="19">
+        <v>202</v>
+      </c>
+      <c r="D62" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="19">
+        <v>203</v>
+      </c>
+      <c r="D63" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="19">
+        <v>204</v>
+      </c>
+      <c r="D64" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="19">
+        <v>205</v>
+      </c>
+      <c r="D65" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="19">
+        <v>206</v>
+      </c>
+      <c r="D66" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="19">
+        <v>207</v>
+      </c>
+      <c r="D67" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="19">
+        <v>208</v>
+      </c>
+      <c r="D68" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="19">
+        <v>209</v>
+      </c>
+      <c r="D69" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="19">
+        <v>210</v>
+      </c>
+      <c r="D70" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="19">
+        <v>211</v>
+      </c>
+      <c r="D71" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="19">
+        <v>212</v>
+      </c>
+      <c r="D72" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="19">
+        <v>213</v>
+      </c>
+      <c r="D73" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="19">
+        <v>214</v>
+      </c>
+      <c r="D74" s="11">
+        <v>183</v>
+      </c>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="19">
+        <v>215</v>
+      </c>
+      <c r="D75" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="19">
+        <v>216</v>
+      </c>
+      <c r="D76" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="19">
+        <v>217</v>
+      </c>
+      <c r="D77" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="19">
+        <v>218</v>
+      </c>
+      <c r="D78" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="19">
+        <v>219</v>
+      </c>
+      <c r="D79" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+    </row>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1995,9 +3620,10 @@
     <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C145">
-    <sortCondition ref="C1:C145"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E146">
+    <sortCondition ref="C2:C146"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2010,8 +3636,8 @@
   </sheetPr>
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -2040,11 +3666,11 @@
       <c r="B2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
+        <v>40</v>
+      </c>
+      <c r="D2" s="18">
         <v>-1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,11 +3680,11 @@
       <c r="B3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
+        <v>42</v>
+      </c>
+      <c r="D3" s="18">
         <v>-1</v>
-      </c>
-      <c r="D3" s="16">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,102 +3953,104 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="18">
+        <v>136</v>
+      </c>
+      <c r="C28" s="13">
         <v>101</v>
       </c>
-      <c r="D28" s="17">
-        <v>110</v>
-      </c>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="6">
+        <v>105</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="17">
+        <v>110</v>
+      </c>
+      <c r="D32" s="18">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C33" s="17">
+        <v>111</v>
+      </c>
+      <c r="D33" s="18">
         <v>102</v>
-      </c>
-      <c r="D30" s="17">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="18">
-        <v>103</v>
-      </c>
-      <c r="D32" s="17">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="18">
-        <v>104</v>
-      </c>
-      <c r="D33" s="17">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="6">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="17">
+        <v>112</v>
+      </c>
+      <c r="D34" s="29">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="6">
-        <v>106</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="17">
+        <v>113</v>
+      </c>
+      <c r="D35" s="29">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2903,8 +4531,8 @@
   <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,134 +4554,124 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>125</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6">
+        <v>27</v>
+      </c>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="19">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>127</v>
-      </c>
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="19">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="19">
-        <v>129</v>
-      </c>
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="11">
+        <v>33</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>73</v>
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C7" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="C8" s="6">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="13">
-        <v>32</v>
-      </c>
-      <c r="D9" s="19">
-        <v>30</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="6">
+        <v>36</v>
+      </c>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="13">
-        <v>32</v>
-      </c>
-      <c r="D10" s="19">
-        <v>32</v>
-      </c>
+      <c r="B10" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="6">
+        <v>37</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="11">
-        <v>33</v>
+        <v>166</v>
+      </c>
+      <c r="C11" s="6">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,10 +4679,10 @@
         <v>59</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C12" s="6">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,10 +4690,10 @@
         <v>59</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,10 +4701,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3094,10 +4712,10 @@
         <v>59</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,10 +4723,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C16" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,10 +4734,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,10 +4745,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C18" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,10 +4756,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C19" s="6">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,10 +4767,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C20" s="6">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,10 +4778,10 @@
         <v>59</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,10 +4789,10 @@
         <v>59</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C22" s="6">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,10 +4800,10 @@
         <v>59</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C23" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,10 +4811,10 @@
         <v>59</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C24" s="6">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3204,10 +4822,10 @@
         <v>59</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C25" s="6">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3215,10 +4833,10 @@
         <v>59</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,10 +4844,10 @@
         <v>59</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C27" s="6">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,10 +4855,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,10 +4866,10 @@
         <v>59</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C29" s="6">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3259,10 +4877,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C30" s="6">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3270,10 +4888,10 @@
         <v>59</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3281,10 +4899,10 @@
         <v>59</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="6">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3292,10 +4910,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C33" s="6">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3303,10 +4921,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C34" s="6">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,10 +4932,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C35" s="6">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3325,10 +4943,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C36" s="6">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3336,10 +4954,10 @@
         <v>59</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C37" s="6">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3347,10 +4965,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C38" s="6">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,10 +4976,10 @@
         <v>59</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C39" s="6">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,10 +4987,10 @@
         <v>59</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C40" s="6">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3380,10 +4998,10 @@
         <v>59</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C41" s="6">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,32 +5009,38 @@
         <v>59</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C42" s="6">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="6">
-        <v>65</v>
+      <c r="B43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="19">
+        <v>70</v>
+      </c>
+      <c r="D43" s="30">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="6">
-        <v>66</v>
+      <c r="B44" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="19">
+        <v>71</v>
+      </c>
+      <c r="D44" s="30">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,10 +5048,10 @@
         <v>59</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C45" s="6">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,10 +5059,10 @@
         <v>59</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C46" s="6">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3446,198 +5070,196 @@
         <v>59</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="18">
-        <v>70</v>
-      </c>
-      <c r="D48" s="19">
-        <v>80</v>
-      </c>
+      <c r="A48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="6">
+        <v>75</v>
+      </c>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="13">
-        <v>70</v>
-      </c>
-      <c r="D49" s="19">
-        <v>70</v>
-      </c>
+      <c r="B49" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="6">
+        <v>76</v>
+      </c>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="18">
-        <v>71</v>
-      </c>
-      <c r="D50" s="19">
-        <v>81</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="11">
+        <v>77</v>
+      </c>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="13">
-        <v>71</v>
-      </c>
-      <c r="D51" s="19">
-        <v>71</v>
-      </c>
+      <c r="A51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="11">
+        <v>78</v>
+      </c>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="6">
-        <v>72</v>
+        <v>217</v>
+      </c>
+      <c r="C52" s="11">
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="6">
-        <v>73</v>
+      <c r="A53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="19">
+        <v>80</v>
+      </c>
+      <c r="D53" s="29">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="6">
-        <v>74</v>
+      <c r="A54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="19">
+        <v>81</v>
+      </c>
+      <c r="D54" s="29">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>182</v>
+        <v>35</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C55" s="6">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>206</v>
+        <v>35</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C56" s="6">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="11">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="6">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="11">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="11">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="6">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C60" s="6">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C61" s="6">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C62" s="6">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C63" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,65 +5267,65 @@
         <v>17</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C64" s="6">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C65" s="6">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C66" s="6">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C67" s="6">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C68" s="6">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="6">
         <v>104</v>
-      </c>
-      <c r="C69" s="6">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,10 +5333,10 @@
         <v>15</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C70" s="6">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,10 +5344,10 @@
         <v>15</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C71" s="6">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,10 +5355,10 @@
         <v>15</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C72" s="6">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,10 +5366,10 @@
         <v>15</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="6">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3755,10 +5377,10 @@
         <v>15</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="6">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3766,21 +5388,21 @@
         <v>15</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="6">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>88</v>
+      <c r="B76" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C76" s="6">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,10 +5410,10 @@
         <v>15</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C77" s="6">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,21 +5421,21 @@
         <v>15</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C78" s="6">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>87</v>
+      <c r="B79" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C79" s="6">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,10 +5443,10 @@
         <v>15</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C80" s="6">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,126 +5454,141 @@
         <v>15</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C81" s="6">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C82" s="6">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="6">
-        <v>113</v>
+      <c r="A83" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="19">
+        <v>121</v>
+      </c>
+      <c r="D83" s="30">
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C84" s="6">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C85" s="6">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="6">
-        <v>116</v>
+      <c r="A86" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="19">
+        <v>124</v>
+      </c>
+      <c r="D86" s="29">
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="6">
-        <v>120</v>
+      <c r="A87" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="19">
+        <v>125</v>
+      </c>
+      <c r="D87" s="29">
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="13">
-        <v>121</v>
-      </c>
-      <c r="D88" s="19">
-        <v>121</v>
+        <v>21</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="19">
+        <v>126</v>
+      </c>
+      <c r="D88" s="18">
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="18">
-        <v>121</v>
-      </c>
-      <c r="D89" s="19">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="C89" s="19">
+        <v>127</v>
+      </c>
+      <c r="D89" s="18">
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="6">
-        <v>122</v>
+      <c r="A90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="19">
+        <v>128</v>
+      </c>
+      <c r="D90" s="29">
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="6">
-        <v>123</v>
+      <c r="A91" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="19">
+        <v>129</v>
+      </c>
+      <c r="D91" s="29">
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4071,7 +5708,7 @@
     <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C197">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D197">
     <sortCondition ref="C1:C197"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list of all ids.xlsx
+++ b/list of all ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVM\Desktop\foxies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F54366-42C9-4A8C-B695-C306FC9F8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64DFB9-51A7-4F7B-B469-B6B58F2F66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="105" windowWidth="17490" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="3615" windowWidth="17490" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Измерения" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="312">
   <si>
     <t>Название измерения</t>
   </si>
@@ -958,18 +958,32 @@
   </si>
   <si>
     <t>storageProviderID</t>
+  </si>
+  <si>
+    <t>Thaumic Horizons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthesis </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,43 +1144,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1175,38 +1189,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2440,7 +2457,7 @@
   </sheetPr>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
@@ -4528,11 +4545,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,16 +5540,14 @@
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="29">
         <v>125</v>
-      </c>
-      <c r="C87" s="19">
-        <v>125</v>
-      </c>
-      <c r="D87" s="29">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5545,7 +5560,7 @@
       <c r="C88" s="19">
         <v>126</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="29">
         <v>-1</v>
       </c>
     </row>
@@ -5573,7 +5588,7 @@
       <c r="C90" s="19">
         <v>128</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="18">
         <v>-1</v>
       </c>
     </row>
@@ -5592,17 +5607,30 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="19">
+        <v>130</v>
+      </c>
+      <c r="D92" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C93" s="10">
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5707,9 +5735,10 @@
     <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D197">
-    <sortCondition ref="C1:C197"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
+    <sortCondition ref="C1:C198"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list of all ids.xlsx
+++ b/list of all ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVM\Desktop\foxies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64DFB9-51A7-4F7B-B469-B6B58F2F66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E83A55-A5FB-4133-85CB-DF7A988B6EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="3615" windowWidth="17490" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1500" windowWidth="17490" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Измерения" sheetId="1" r:id="rId1"/>
@@ -4548,8 +4548,8 @@
   <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,7 +5545,9 @@
       <c r="B87" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="C87" s="19"/>
+      <c r="C87" s="19">
+        <v>125</v>
+      </c>
       <c r="D87" s="29">
         <v>125</v>
       </c>

--- a/list of all ids.xlsx
+++ b/list of all ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVM\Desktop\foxies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E83A55-A5FB-4133-85CB-DF7A988B6EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E6AC9-A1C2-4768-AE71-27838B5359A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1500" windowWidth="17490" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Измерения" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="356">
   <si>
     <t>Название измерения</t>
   </si>
@@ -705,9 +705,6 @@
     <t>ID start from</t>
   </si>
   <si>
-    <t>Идшники стартуют с 200 и дальше хз сколько</t>
-  </si>
-  <si>
     <t>Moon</t>
   </si>
   <si>
@@ -964,6 +961,141 @@
   </si>
   <si>
     <t xml:space="preserve">Synthesis </t>
+  </si>
+  <si>
+    <t>Realistic World Gen</t>
+  </si>
+  <si>
+    <t>Ice River</t>
+  </si>
+  <si>
+    <t>Cold River</t>
+  </si>
+  <si>
+    <t>Temperate River</t>
+  </si>
+  <si>
+    <t>Hot River</t>
+  </si>
+  <si>
+    <t>Wet River</t>
+  </si>
+  <si>
+    <t>River Oasis</t>
+  </si>
+  <si>
+    <t>Ice Ocean</t>
+  </si>
+  <si>
+    <t>Cold Ocean</t>
+  </si>
+  <si>
+    <t>Temperate Ocean</t>
+  </si>
+  <si>
+    <t>Hot Ocean</t>
+  </si>
+  <si>
+    <t>Wet Ocean</t>
+  </si>
+  <si>
+    <t>Ocean Oasis</t>
+  </si>
+  <si>
+    <t>Snow Desert</t>
+  </si>
+  <si>
+    <t>Snow Forest</t>
+  </si>
+  <si>
+    <t>Cold Plains</t>
+  </si>
+  <si>
+    <t>Cold Forest</t>
+  </si>
+  <si>
+    <t>Hot Plains</t>
+  </si>
+  <si>
+    <t>Hot Forest</t>
+  </si>
+  <si>
+    <t>Hot Desert</t>
+  </si>
+  <si>
+    <t>Plains (RWG)</t>
+  </si>
+  <si>
+    <t>Tropical Island</t>
+  </si>
+  <si>
+    <t>Redwood</t>
+  </si>
+  <si>
+    <t>Jungle (RWG)</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Temperate Forest</t>
+  </si>
+  <si>
+    <t>Abandoned Caves</t>
+  </si>
+  <si>
+    <t>Bedrock Plains</t>
+  </si>
+  <si>
+    <t>Compressed</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Darkness</t>
+  </si>
+  <si>
+    <t>Deep World</t>
+  </si>
+  <si>
+    <t>Drop Biome</t>
+  </si>
+  <si>
+    <t>Evil Biome</t>
+  </si>
+  <si>
+    <t>Far Void</t>
+  </si>
+  <si>
+    <t>Final Labyrinth</t>
+  </si>
+  <si>
+    <t>Forgotten</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>Near Nether</t>
+  </si>
+  <si>
+    <t>Near Void</t>
+  </si>
+  <si>
+    <t>Deeper Caves</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Evil</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1132,11 +1264,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,6 +1367,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,8 +1658,8 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,10 +1686,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="19">
         <v>-120</v>
@@ -1554,10 +1700,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="19">
         <v>-117</v>
@@ -1568,10 +1714,10 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="19">
         <v>-116</v>
@@ -1582,10 +1728,10 @@
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="19">
         <v>-115</v>
@@ -1596,10 +1742,10 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="19">
         <v>-114</v>
@@ -1610,10 +1756,10 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="19">
         <v>-113</v>
@@ -1624,10 +1770,10 @@
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="19">
         <v>-112</v>
@@ -1638,10 +1784,10 @@
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="19">
         <v>-111</v>
@@ -1652,10 +1798,10 @@
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="19">
         <v>-110</v>
@@ -1666,10 +1812,10 @@
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="19">
         <v>-109</v>
@@ -1680,10 +1826,10 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="19">
         <v>-108</v>
@@ -1694,10 +1840,10 @@
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="19">
         <v>-107</v>
@@ -1708,10 +1854,10 @@
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="19">
         <v>-106</v>
@@ -1722,10 +1868,10 @@
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="19">
         <v>-105</v>
@@ -1736,10 +1882,10 @@
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="19">
         <v>-104</v>
@@ -1750,10 +1896,10 @@
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="19">
         <v>-103</v>
@@ -1764,10 +1910,10 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="19">
         <v>-102</v>
@@ -1778,10 +1924,10 @@
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="19">
         <v>-101</v>
@@ -1792,10 +1938,10 @@
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="19">
         <v>-100</v>
@@ -1806,10 +1952,10 @@
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="19">
         <v>-99</v>
@@ -1820,10 +1966,10 @@
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="19">
         <v>-98</v>
@@ -1834,10 +1980,10 @@
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" s="19">
         <v>-97</v>
@@ -1848,10 +1994,10 @@
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="19">
         <v>-96</v>
@@ -1862,10 +2008,10 @@
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="19">
         <v>-95</v>
@@ -1876,10 +2022,10 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="19">
         <v>-94</v>
@@ -1890,10 +2036,10 @@
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" s="19">
         <v>-93</v>
@@ -1904,10 +2050,10 @@
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="19">
         <v>-92</v>
@@ -1918,10 +2064,10 @@
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="19">
         <v>-91</v>
@@ -1932,10 +2078,10 @@
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C30" s="19">
         <v>-90</v>
@@ -1946,10 +2092,10 @@
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="19">
         <v>-89</v>
@@ -1960,10 +2106,10 @@
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="19">
         <v>-88</v>
@@ -1974,10 +2120,10 @@
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="19">
         <v>-87</v>
@@ -1988,10 +2134,10 @@
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="19">
         <v>-86</v>
@@ -2002,10 +2148,10 @@
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="19">
         <v>-85</v>
@@ -2016,10 +2162,10 @@
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="19">
         <v>-84</v>
@@ -2030,10 +2176,10 @@
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="19">
         <v>-83</v>
@@ -2044,10 +2190,10 @@
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="19">
         <v>-82</v>
@@ -2058,10 +2204,10 @@
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="19">
         <v>-81</v>
@@ -2072,10 +2218,10 @@
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" s="19">
         <v>-80</v>
@@ -2086,10 +2232,10 @@
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="19">
         <v>-79</v>
@@ -2100,10 +2246,10 @@
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="19">
         <v>-78</v>
@@ -2114,10 +2260,10 @@
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="19">
         <v>-77</v>
@@ -2128,10 +2274,10 @@
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" s="19">
         <v>-76</v>
@@ -2142,10 +2288,10 @@
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="19">
         <v>-75</v>
@@ -2156,10 +2302,10 @@
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="C46" s="19">
         <v>-74</v>
@@ -2208,10 +2354,10 @@
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="C50" s="6">
         <v>-39</v>
@@ -2244,10 +2390,10 @@
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="C53" s="6">
         <v>-30</v>
@@ -2256,10 +2402,10 @@
     </row>
     <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="6">
         <v>-29</v>
@@ -2271,7 +2417,7 @@
         <v>223</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="24">
         <v>-28</v>
@@ -2292,105 +2438,272 @@
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>35</v>
+        <v>353</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="6">
-        <v>-1</v>
+        <v>346</v>
+      </c>
+      <c r="C57" s="11">
+        <v>-17</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>35</v>
+        <v>353</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="C58" s="11">
+        <v>-16</v>
       </c>
       <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="6">
-        <v>6</v>
+      <c r="A59" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C59" s="11">
+        <v>-15</v>
       </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="6">
-        <v>7</v>
+        <v>353</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" s="11">
+        <v>-14</v>
       </c>
       <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="6">
-        <v>69</v>
+        <v>350</v>
+      </c>
+      <c r="C61" s="11">
+        <v>-13</v>
       </c>
       <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="6">
-        <v>110</v>
+        <v>353</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="11">
+        <v>-12</v>
       </c>
       <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" s="11">
+        <v>-11</v>
+      </c>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="11">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="11">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="11">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="11">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="11">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" s="11">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="6">
+        <v>6</v>
+      </c>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="6">
+        <v>7</v>
+      </c>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="6">
+        <v>69</v>
+      </c>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C78" s="6">
+        <v>110</v>
+      </c>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="6">
         <v>122</v>
       </c>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2457,9 +2770,9 @@
   </sheetPr>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,10 +3004,10 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="C21" s="6">
         <v>59</v>
@@ -2707,7 +3020,10 @@
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="19">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6">
         <v>74</v>
       </c>
     </row>
@@ -2747,10 +3063,10 @@
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="C26" s="19">
         <v>128</v>
@@ -2761,10 +3077,10 @@
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="19">
         <v>135</v>
@@ -2775,10 +3091,10 @@
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="19">
         <v>136</v>
@@ -2789,10 +3105,10 @@
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="19">
         <v>137</v>
@@ -2803,10 +3119,10 @@
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="19">
         <v>138</v>
@@ -2822,10 +3138,10 @@
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="19">
         <v>139</v>
@@ -2836,10 +3152,10 @@
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="19">
         <v>141</v>
@@ -2850,10 +3166,10 @@
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="19">
         <v>142</v>
@@ -2864,10 +3180,10 @@
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" s="19">
         <v>143</v>
@@ -2878,10 +3194,10 @@
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="19">
         <v>144</v>
@@ -2892,10 +3208,10 @@
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="19">
         <v>145</v>
@@ -2906,10 +3222,10 @@
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" s="19">
         <v>146</v>
@@ -2920,10 +3236,10 @@
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="19">
         <v>147</v>
@@ -2934,10 +3250,10 @@
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="19">
         <v>148</v>
@@ -2948,10 +3264,10 @@
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="19">
         <v>150</v>
@@ -2962,10 +3278,10 @@
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="19">
         <v>152</v>
@@ -2976,10 +3292,10 @@
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="19">
         <v>153</v>
@@ -2990,10 +3306,10 @@
     </row>
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="19">
         <v>154</v>
@@ -3004,10 +3320,10 @@
     </row>
     <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="19">
         <v>155</v>
@@ -3018,10 +3334,10 @@
     </row>
     <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="19">
         <v>159</v>
@@ -3032,10 +3348,10 @@
     </row>
     <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="19">
         <v>177</v>
@@ -3046,10 +3362,10 @@
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="19">
         <v>168</v>
@@ -3060,10 +3376,10 @@
     </row>
     <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C48" s="19">
         <v>169</v>
@@ -3074,10 +3390,10 @@
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" s="19">
         <v>170</v>
@@ -3088,10 +3404,10 @@
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="19">
         <v>171</v>
@@ -3102,10 +3418,10 @@
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="19">
         <v>172</v>
@@ -3116,10 +3432,10 @@
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="19">
         <v>173</v>
@@ -3130,10 +3446,10 @@
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" s="19">
         <v>174</v>
@@ -3144,10 +3460,10 @@
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C54" s="19">
         <v>175</v>
@@ -3158,10 +3474,10 @@
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" s="19">
         <v>176</v>
@@ -3232,16 +3548,14 @@
       <c r="D60" s="24">
         <v>102</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>225</v>
-      </c>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C61" s="19">
         <v>201</v>
@@ -3252,10 +3566,10 @@
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C62" s="19">
         <v>202</v>
@@ -3266,10 +3580,10 @@
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C63" s="19">
         <v>203</v>
@@ -3280,10 +3594,10 @@
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="19">
         <v>204</v>
@@ -3294,10 +3608,10 @@
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="19">
         <v>205</v>
@@ -3308,10 +3622,10 @@
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" s="19">
         <v>206</v>
@@ -3322,10 +3636,10 @@
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="19">
         <v>207</v>
@@ -3336,10 +3650,10 @@
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="19">
         <v>208</v>
@@ -3350,10 +3664,10 @@
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C69" s="19">
         <v>209</v>
@@ -3364,10 +3678,10 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C70" s="19">
         <v>210</v>
@@ -3378,10 +3692,10 @@
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C71" s="19">
         <v>211</v>
@@ -3392,10 +3706,10 @@
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="19">
         <v>212</v>
@@ -3406,10 +3720,10 @@
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="19">
         <v>213</v>
@@ -3420,10 +3734,10 @@
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C74" s="19">
         <v>214</v>
@@ -3435,10 +3749,10 @@
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" s="19">
         <v>215</v>
@@ -3449,10 +3763,10 @@
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76" s="19">
         <v>216</v>
@@ -3463,10 +3777,10 @@
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" s="19">
         <v>217</v>
@@ -3477,10 +3791,10 @@
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" s="19">
         <v>218</v>
@@ -3491,10 +3805,10 @@
     </row>
     <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="19">
         <v>219</v>
@@ -3504,122 +3818,603 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-    </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-    </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-    </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-    </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-    </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-    </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-    </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-    </row>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A80" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" s="19">
+        <v>245</v>
+      </c>
+      <c r="D80" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C81" s="19">
+        <v>246</v>
+      </c>
+      <c r="D81" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="19">
+        <v>247</v>
+      </c>
+      <c r="D82" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="19">
+        <v>248</v>
+      </c>
+      <c r="D83" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="19">
+        <v>224</v>
+      </c>
+      <c r="D84" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" s="19">
+        <v>225</v>
+      </c>
+      <c r="D85" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="19">
+        <v>226</v>
+      </c>
+      <c r="D86" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="19">
+        <v>227</v>
+      </c>
+      <c r="D87" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="19">
+        <v>228</v>
+      </c>
+      <c r="D88" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="19">
+        <v>229</v>
+      </c>
+      <c r="D89" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" s="19">
+        <v>230</v>
+      </c>
+      <c r="D90" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="19">
+        <v>231</v>
+      </c>
+      <c r="D91" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="19">
+        <v>232</v>
+      </c>
+      <c r="D92" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" s="19">
+        <v>233</v>
+      </c>
+      <c r="D93" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" s="19">
+        <v>234</v>
+      </c>
+      <c r="D94" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" s="19">
+        <v>235</v>
+      </c>
+      <c r="D95" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="19">
+        <v>236</v>
+      </c>
+      <c r="D96" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="19">
+        <v>237</v>
+      </c>
+      <c r="D97" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" s="19">
+        <v>238</v>
+      </c>
+      <c r="D98" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="19">
+        <v>239</v>
+      </c>
+      <c r="D99" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="19">
+        <v>240</v>
+      </c>
+      <c r="D100" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="19">
+        <v>241</v>
+      </c>
+      <c r="D101" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" s="19">
+        <v>242</v>
+      </c>
+      <c r="D102" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C103" s="19">
+        <v>243</v>
+      </c>
+      <c r="D103" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" s="19">
+        <v>244</v>
+      </c>
+      <c r="D104" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="19">
+        <v>106</v>
+      </c>
+      <c r="D105" s="33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C106" s="19">
+        <v>107</v>
+      </c>
+      <c r="D106" s="33">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="19">
+        <v>108</v>
+      </c>
+      <c r="D107" s="33">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="19">
+        <v>109</v>
+      </c>
+      <c r="D108" s="33">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" s="19">
+        <v>110</v>
+      </c>
+      <c r="D109" s="33">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="19">
+        <v>111</v>
+      </c>
+      <c r="D110" s="33">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C111" s="19">
+        <v>112</v>
+      </c>
+      <c r="D111" s="33">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="19">
+        <v>113</v>
+      </c>
+      <c r="D112" s="33">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="19">
+        <v>114</v>
+      </c>
+      <c r="D113" s="33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="19">
+        <v>115</v>
+      </c>
+      <c r="D114" s="33">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="19">
+        <v>116</v>
+      </c>
+      <c r="D115" s="33">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="19">
+        <v>117</v>
+      </c>
+      <c r="D116" s="33">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="19">
+        <v>118</v>
+      </c>
+      <c r="D117" s="33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" s="19">
+        <v>119</v>
+      </c>
+      <c r="D118" s="33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="19">
+        <v>120</v>
+      </c>
+      <c r="D119" s="33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" s="19">
+        <v>121</v>
+      </c>
+      <c r="D120" s="33">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="19"/>
+    </row>
+    <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="19"/>
+    </row>
+    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4547,7 +5342,7 @@
   </sheetPr>
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
@@ -5540,10 +6335,10 @@
     </row>
     <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="32" t="s">
         <v>310</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>311</v>
       </c>
       <c r="C87" s="19">
         <v>125</v>
